--- a/grade_eight.xlsx
+++ b/grade_eight.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soorbon-01\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Mohamad/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1EF81E1-76EF-2043-8F8D-7C7637F1F087}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="7068"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -272,7 +273,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -583,24 +584,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.109375" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" customWidth="1"/>
     <col min="2" max="2" width="6.33203125" customWidth="1"/>
     <col min="3" max="3" width="23.6640625" customWidth="1"/>
     <col min="4" max="4" width="26.33203125" customWidth="1"/>
-    <col min="5" max="5" width="27.88671875" customWidth="1"/>
-    <col min="6" max="6" width="28.5546875" customWidth="1"/>
+    <col min="5" max="5" width="27.83203125" customWidth="1"/>
+    <col min="6" max="6" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -620,7 +621,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -640,7 +641,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -660,7 +661,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -680,7 +681,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -700,7 +701,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -714,7 +715,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -734,7 +735,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -754,7 +755,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -774,7 +775,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -794,7 +795,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -814,7 +815,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -828,7 +829,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -848,7 +849,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -868,7 +869,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -888,7 +889,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -908,7 +909,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -928,7 +929,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -942,7 +943,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -962,7 +963,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -982,7 +983,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1002,7 +1003,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1022,7 +1023,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1042,7 +1043,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1056,7 +1057,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>

--- a/grade_eight.xlsx
+++ b/grade_eight.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Mohamad/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC 1\Desktop\مدرسه پیشتاز\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1EF81E1-76EF-2043-8F8D-7C7637F1F087}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7425"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="88">
   <si>
     <t>id</t>
   </si>
@@ -45,235 +44,256 @@
     <t>fourth_course_code</t>
   </si>
   <si>
-    <t>CgHiRIMA8rBir1EibWzp</t>
-  </si>
-  <si>
-    <t>kjypV2CMpZz4QT1XSsgP</t>
-  </si>
-  <si>
-    <t>fubXNCxATPueGo74bP8N</t>
-  </si>
-  <si>
-    <t>7mr6nCkuTtKdl4H0YRjn</t>
-  </si>
-  <si>
-    <t>71QX2vm6wUckJXpgCRaY</t>
-  </si>
-  <si>
-    <t>txwydNKp9Uy2tLpr6r8j</t>
-  </si>
-  <si>
-    <t>0zBEEYT7u5R4N3wkJ8rA</t>
-  </si>
-  <si>
-    <t>B3Za0kRq5K3bZRhwixm2</t>
-  </si>
-  <si>
-    <t>VgU5ZVIEkIk3xxgpP72U</t>
-  </si>
-  <si>
-    <t>CoRxI3rXGmUpxvWwZquK</t>
-  </si>
-  <si>
-    <t>0s1tZ2LTWy3fuu1cRVoS</t>
-  </si>
-  <si>
-    <t>Tifnc5bNNRFxK3nvRMUc</t>
-  </si>
-  <si>
-    <t>CXhylqSdP57xuKMyXyfx</t>
-  </si>
-  <si>
-    <t>Dn2MwAIuRRilOIRF4JZJ</t>
-  </si>
-  <si>
-    <t>lbnkmWe46coC6v8pPjuV</t>
-  </si>
-  <si>
-    <t>7hGOvWYoYLGWUcbB68cu</t>
-  </si>
-  <si>
-    <t>LqJSzhlrjRhoJWbAdUPf</t>
-  </si>
-  <si>
-    <t>B3XjfQXur0uN6LgubfE7</t>
-  </si>
-  <si>
-    <t>i25ofdHS2WEgHNWSKSWV</t>
-  </si>
-  <si>
-    <t>OO7eYBj1jsHQ8M1MEuPM</t>
-  </si>
-  <si>
-    <t>pUNYfRFoJpDCvHV4Yb9P</t>
-  </si>
-  <si>
-    <t>v0au6xJdxMd05YEjw6Yl</t>
-  </si>
-  <si>
-    <t>YcyPCKsByaOtvXKGiWJ2</t>
-  </si>
-  <si>
-    <t>UU9NoSqq74Qa7VL7Itze</t>
-  </si>
-  <si>
-    <t>qg7H0RLqL1b7H49G2zA3</t>
-  </si>
-  <si>
-    <t>WhFyg7HDH4R5o2FbGq9I</t>
-  </si>
-  <si>
-    <t>wRtanQnGg1VmQawXGAqF</t>
-  </si>
-  <si>
-    <t>ywxikOyYl5hkEcOISrhL</t>
-  </si>
-  <si>
-    <t>7wYaMxhwzo2zUABFZew6</t>
-  </si>
-  <si>
-    <t>IC08brFoIbAp4fZzbm0P</t>
-  </si>
-  <si>
-    <t>PlGeFw0vTjKttyhB7fif</t>
-  </si>
-  <si>
-    <t>zBmeG7HtsbjZoGI5eihc</t>
-  </si>
-  <si>
-    <t>NGENs110ZQLMRo29Im9L</t>
-  </si>
-  <si>
-    <t>4RLGmnypmsPXQWbBj7Zi</t>
-  </si>
-  <si>
-    <t>903IKefllukUzGFvy1Ew</t>
-  </si>
-  <si>
-    <t>wkALRwY2uflauygqFkzy</t>
-  </si>
-  <si>
-    <t>eoxZQggzJprn5E067Jvp</t>
-  </si>
-  <si>
-    <t>E0GsqXfTwcDGeYXhKTcj</t>
-  </si>
-  <si>
-    <t>bd4vic4iU3Mssx8hEkxN</t>
-  </si>
-  <si>
-    <t>ZjAg8IJ1qVaYCqmzlmrX</t>
-  </si>
-  <si>
-    <t>tp1PKJr7t04WqW7s2Ot0</t>
-  </si>
-  <si>
-    <t>3lpeF6dCtSF0LuaJeTVV</t>
-  </si>
-  <si>
-    <t>qMrggKruwA7K8jghuCE9</t>
-  </si>
-  <si>
-    <t>NNKzyyJQgJ6m36WoAlTV</t>
-  </si>
-  <si>
-    <t>eyLT7EQUGttPHGorwTgr</t>
-  </si>
-  <si>
-    <t>vgiL1DSzVjiyhHAgjZc4</t>
+    <t>**</t>
+  </si>
+  <si>
+    <t>***********************</t>
+  </si>
+  <si>
+    <t>********************</t>
+  </si>
+  <si>
+    <t>**********************</t>
+  </si>
+  <si>
+    <t>*****************</t>
+  </si>
+  <si>
+    <t>*******************</t>
+  </si>
+  <si>
+    <t>******************</t>
+  </si>
+  <si>
+    <t>**************************</t>
   </si>
   <si>
     <t>U9ctdIqVoVZVpTLU9Bl8</t>
   </si>
   <si>
-    <t>JT4myjXjEDOIkd7u3CTx</t>
-  </si>
-  <si>
-    <t>LJsjaq7Hflnp92GrP7yR</t>
-  </si>
-  <si>
-    <t>PYU3nBs3qnrgjumydXSU</t>
-  </si>
-  <si>
-    <t>FhYdHZ8hWfVrHBTZnKM0</t>
-  </si>
-  <si>
-    <t>TOMzcKfXgxV4ZGpskfpl</t>
-  </si>
-  <si>
-    <t>rcYIYWXQIE7oCrvhVeze</t>
-  </si>
-  <si>
-    <t>EmcD0tlKBgIWrWaqGL9X</t>
-  </si>
-  <si>
-    <t>N7hcMFt5zwtLEagTJNPH</t>
-  </si>
-  <si>
-    <t>916WNoJttKYnLL5biq1g</t>
-  </si>
-  <si>
-    <t>DJRfCzQHdHuXUPLxkNmC</t>
-  </si>
-  <si>
-    <t>sjEbtsnqcm4kZTcX1R9c</t>
-  </si>
-  <si>
-    <t>kqyp9sVSNjiebf7bJz9s</t>
-  </si>
-  <si>
-    <t>DnzbgZXwjNIWcGeYqJDC</t>
-  </si>
-  <si>
-    <t>ktwB3F2KDpJ85mEnQzoo</t>
-  </si>
-  <si>
-    <t>W7MNOKCQoCv2H4LvalTa</t>
-  </si>
-  <si>
-    <t>r3uYH5dy1MLbPSOzkAF0</t>
-  </si>
-  <si>
-    <t>RUeBh2StgmaEh33kD84p</t>
-  </si>
-  <si>
-    <t>7XIhNzyWcno7UB5FYVhl</t>
-  </si>
-  <si>
-    <t>X3mWdMpfbQgtAiRSJ5vW</t>
-  </si>
-  <si>
-    <t>zpa2gitoszwbtRpGGOvh</t>
-  </si>
-  <si>
-    <t>VovtF8H2QgDMLFZZ6mi1</t>
-  </si>
-  <si>
-    <t>xLxsS7y01F62c3iU8kKz</t>
-  </si>
-  <si>
-    <t>Sj3y1FW5PDddhhjyOzle</t>
-  </si>
-  <si>
-    <t>81pJnrjp4OWhK5v3dO1v</t>
-  </si>
-  <si>
-    <t>S00QGboyI5S89zTyvVUp</t>
-  </si>
-  <si>
-    <t>2NkmEZYByTuZRjGiUZmI</t>
-  </si>
-  <si>
-    <t>3lsVEef7CNeWjdbhoHBT</t>
-  </si>
-  <si>
-    <t>NfBgryDYWyLCL45iQu8D</t>
+    <t>*********************</t>
+  </si>
+  <si>
+    <t>************************</t>
+  </si>
+  <si>
+    <t>sCvMx3lB9BPjA1h1NviT</t>
+  </si>
+  <si>
+    <t>MB1XIQaASEfBwhFQDQEC</t>
+  </si>
+  <si>
+    <t>kucJ80NKXvvTudph3zQI</t>
+  </si>
+  <si>
+    <t>AlQI5wlEKO0tvD9xo8GM</t>
+  </si>
+  <si>
+    <t>EQw3R0MT9ZUYyWqS5Xxr</t>
+  </si>
+  <si>
+    <t>ZRPDgJt8Y8tZNfaAni8e</t>
+  </si>
+  <si>
+    <t>4dAut8Xsa5t6WJLs8x9D</t>
+  </si>
+  <si>
+    <t>neAf8blIiCWwnXTuaCkI</t>
+  </si>
+  <si>
+    <t>rGNsTvzr21NAFCfNwH1G</t>
+  </si>
+  <si>
+    <t>nwLx5JyhoPukyziWcocT</t>
+  </si>
+  <si>
+    <t>jIblos1zwN6HcK9pxc1z</t>
+  </si>
+  <si>
+    <t>WAhWTSKs1CYF32qNTpqP</t>
+  </si>
+  <si>
+    <t>WBpJLoRP1yOTflwmQi0Y</t>
+  </si>
+  <si>
+    <t>qAQ0b66ju45gqcs8jRnw</t>
+  </si>
+  <si>
+    <t>n28kM0TIatcLJMydkHMo</t>
+  </si>
+  <si>
+    <t>y8aEVEU65uf46TVbPy2y</t>
+  </si>
+  <si>
+    <t>fnbInHcV8oa6NnTQhAfz</t>
+  </si>
+  <si>
+    <t>UeDPOqnTYe9RsaPM68di</t>
+  </si>
+  <si>
+    <t>7WB2DYfCdvdbLJdS5xDU</t>
+  </si>
+  <si>
+    <t>Ei4yKKGfGkhLFuK00inR</t>
+  </si>
+  <si>
+    <t>vzGmOXmytbOi34Cy33AB</t>
+  </si>
+  <si>
+    <t>RC4YqassLr50p6ZJWD9G</t>
+  </si>
+  <si>
+    <t>PBSl20by0NagIobEMXAh</t>
+  </si>
+  <si>
+    <t>uYojwboZpGetV3lCDgTV</t>
+  </si>
+  <si>
+    <t>i5yEqW5Zdhzy5Z7AdGy7</t>
+  </si>
+  <si>
+    <t>drCwpGTZFedTr4f21Amk</t>
+  </si>
+  <si>
+    <t>bCjzvH47TJH9TN9Kjraw</t>
+  </si>
+  <si>
+    <t>8AJePPrqvBbRig2K1Yu7</t>
+  </si>
+  <si>
+    <t>LKUnoNmLf2Orvsj2Hceo</t>
+  </si>
+  <si>
+    <t>iRn15SkzX0oJRRzBL62N</t>
+  </si>
+  <si>
+    <t>rQz1Eu3quTwWl5gHh1IL</t>
+  </si>
+  <si>
+    <t>HhGxCIZRkgUhSrxDeQt9</t>
+  </si>
+  <si>
+    <t>EZwmApmEUnaWieJRGHIW</t>
+  </si>
+  <si>
+    <t>5E3qEYQGjd99YbC2nY16</t>
+  </si>
+  <si>
+    <t>VOYDI9ufPe8Mt0uLb8hS</t>
+  </si>
+  <si>
+    <t>YWI1PRwYjOD4BrOFyRBM</t>
+  </si>
+  <si>
+    <t>r9rTsz4FcGmW3bhDacBH</t>
+  </si>
+  <si>
+    <t>5I0D8AhTW8B0zAmgO8O0</t>
+  </si>
+  <si>
+    <t>Ch1oedPt4CFe26HzYtIV</t>
+  </si>
+  <si>
+    <t>jpZ9LFxMGLkvjWEzprSk</t>
+  </si>
+  <si>
+    <t>gKpPnZcQYkaF6uJi2BCm</t>
+  </si>
+  <si>
+    <t>2bbFHbybDVIEC1pPDaFk</t>
+  </si>
+  <si>
+    <t>X22L93X4UqRPEXH9HF30</t>
+  </si>
+  <si>
+    <t>KGQDLK4cKGs3qnA2dkAc</t>
+  </si>
+  <si>
+    <t>duUnGI605q37Yc9UAvUr</t>
+  </si>
+  <si>
+    <t>mtlmLOthaa3Tq8c7PanR</t>
+  </si>
+  <si>
+    <t>5FKdQxsG9swi1kwtAlax</t>
+  </si>
+  <si>
+    <t>j4W1k5OoFFyiZGhmaWrM</t>
+  </si>
+  <si>
+    <t>ifc4vVxxdu3S24OSlcCT</t>
+  </si>
+  <si>
+    <t>nMyKNC5EtgWPX6ZTFhCI</t>
+  </si>
+  <si>
+    <t>xQB65t2Jk3IeVQhCm9z8</t>
+  </si>
+  <si>
+    <t>o0YTnSvLaMJ9anSnZmGB</t>
+  </si>
+  <si>
+    <t>8b2RdLgx53gBMw1pqnwj</t>
+  </si>
+  <si>
+    <t>wIE7TC0z15ROQRmEP8NY</t>
+  </si>
+  <si>
+    <t>gES0jyVuHvITxTzo5vXh</t>
+  </si>
+  <si>
+    <t>6i41zMrPcoirWDyvPy62</t>
+  </si>
+  <si>
+    <t>w9uwl3peL3HYT8zyOyG3</t>
+  </si>
+  <si>
+    <t>8MRXce2JtSZL5BjpR1tp</t>
+  </si>
+  <si>
+    <t>8mZ2XYCxSsaTrdsxQ9g7</t>
+  </si>
+  <si>
+    <t>4JLKM0vbqcbxUDOhxQeU</t>
+  </si>
+  <si>
+    <t>3q0JrbaklhD59NBDDHGz</t>
+  </si>
+  <si>
+    <t>aMzGoEbNFmTdr2hJMaBJ</t>
+  </si>
+  <si>
+    <t>eriqJZ6VzAHMrthjqwHB</t>
+  </si>
+  <si>
+    <t>0Q3Q9c5EMposRoBkVpvw</t>
+  </si>
+  <si>
+    <t>awBYyhA3ZG0n5LV8nED9</t>
+  </si>
+  <si>
+    <t>P3My4YPwpZcKYd1STFxs</t>
+  </si>
+  <si>
+    <t>tjraHmVRRlh5bY7OmC9u</t>
+  </si>
+  <si>
+    <t>KUvwX6HuaZaSsNaklvcb</t>
+  </si>
+  <si>
+    <t>Ua58muo7MGktkvDQeRoE</t>
+  </si>
+  <si>
+    <t>8EOk84qkpJtAkgzoGoOv</t>
+  </si>
+  <si>
+    <t>UphDPvshyev5N1Th5fWW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -584,24 +604,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" customWidth="1"/>
-    <col min="5" max="5" width="27.83203125" customWidth="1"/>
-    <col min="6" max="6" width="28.5" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -621,7 +641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -629,19 +649,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -649,19 +669,19 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -669,19 +689,19 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -689,19 +709,19 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -709,13 +729,19 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -723,19 +749,19 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -743,19 +769,19 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -763,19 +789,19 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -783,19 +809,19 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -803,19 +829,19 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -823,13 +849,19 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -837,19 +869,19 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -857,19 +889,19 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -877,19 +909,19 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -897,19 +929,19 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -917,19 +949,19 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="F17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -937,13 +969,19 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -951,19 +989,19 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -971,19 +1009,19 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="E20" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="F20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -991,19 +1029,19 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E21" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="F21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1011,19 +1049,19 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="E22" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="F22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1031,33 +1069,39 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="E23" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="F23" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
         <v>4</v>
       </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
       <c r="E24" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="F24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1065,16 +1109,16 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="F25" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/grade_eight.xlsx
+++ b/grade_eight.xlsx
@@ -68,226 +68,226 @@
     <t>**************************</t>
   </si>
   <si>
-    <t>U9ctdIqVoVZVpTLU9Bl8</t>
-  </si>
-  <si>
     <t>*********************</t>
   </si>
   <si>
     <t>************************</t>
   </si>
   <si>
-    <t>sCvMx3lB9BPjA1h1NviT</t>
-  </si>
-  <si>
-    <t>MB1XIQaASEfBwhFQDQEC</t>
-  </si>
-  <si>
-    <t>kucJ80NKXvvTudph3zQI</t>
-  </si>
-  <si>
-    <t>AlQI5wlEKO0tvD9xo8GM</t>
-  </si>
-  <si>
-    <t>EQw3R0MT9ZUYyWqS5Xxr</t>
-  </si>
-  <si>
-    <t>ZRPDgJt8Y8tZNfaAni8e</t>
-  </si>
-  <si>
-    <t>4dAut8Xsa5t6WJLs8x9D</t>
-  </si>
-  <si>
-    <t>neAf8blIiCWwnXTuaCkI</t>
-  </si>
-  <si>
-    <t>rGNsTvzr21NAFCfNwH1G</t>
-  </si>
-  <si>
-    <t>nwLx5JyhoPukyziWcocT</t>
-  </si>
-  <si>
-    <t>jIblos1zwN6HcK9pxc1z</t>
-  </si>
-  <si>
-    <t>WAhWTSKs1CYF32qNTpqP</t>
-  </si>
-  <si>
-    <t>WBpJLoRP1yOTflwmQi0Y</t>
-  </si>
-  <si>
-    <t>qAQ0b66ju45gqcs8jRnw</t>
-  </si>
-  <si>
-    <t>n28kM0TIatcLJMydkHMo</t>
-  </si>
-  <si>
-    <t>y8aEVEU65uf46TVbPy2y</t>
-  </si>
-  <si>
-    <t>fnbInHcV8oa6NnTQhAfz</t>
-  </si>
-  <si>
-    <t>UeDPOqnTYe9RsaPM68di</t>
-  </si>
-  <si>
-    <t>7WB2DYfCdvdbLJdS5xDU</t>
-  </si>
-  <si>
-    <t>Ei4yKKGfGkhLFuK00inR</t>
-  </si>
-  <si>
-    <t>vzGmOXmytbOi34Cy33AB</t>
-  </si>
-  <si>
-    <t>RC4YqassLr50p6ZJWD9G</t>
-  </si>
-  <si>
-    <t>PBSl20by0NagIobEMXAh</t>
-  </si>
-  <si>
-    <t>uYojwboZpGetV3lCDgTV</t>
-  </si>
-  <si>
-    <t>i5yEqW5Zdhzy5Z7AdGy7</t>
-  </si>
-  <si>
-    <t>drCwpGTZFedTr4f21Amk</t>
-  </si>
-  <si>
-    <t>bCjzvH47TJH9TN9Kjraw</t>
-  </si>
-  <si>
-    <t>8AJePPrqvBbRig2K1Yu7</t>
-  </si>
-  <si>
-    <t>LKUnoNmLf2Orvsj2Hceo</t>
-  </si>
-  <si>
-    <t>iRn15SkzX0oJRRzBL62N</t>
-  </si>
-  <si>
-    <t>rQz1Eu3quTwWl5gHh1IL</t>
-  </si>
-  <si>
-    <t>HhGxCIZRkgUhSrxDeQt9</t>
-  </si>
-  <si>
-    <t>EZwmApmEUnaWieJRGHIW</t>
-  </si>
-  <si>
-    <t>5E3qEYQGjd99YbC2nY16</t>
-  </si>
-  <si>
-    <t>VOYDI9ufPe8Mt0uLb8hS</t>
-  </si>
-  <si>
-    <t>YWI1PRwYjOD4BrOFyRBM</t>
-  </si>
-  <si>
-    <t>r9rTsz4FcGmW3bhDacBH</t>
-  </si>
-  <si>
-    <t>5I0D8AhTW8B0zAmgO8O0</t>
-  </si>
-  <si>
-    <t>Ch1oedPt4CFe26HzYtIV</t>
-  </si>
-  <si>
-    <t>jpZ9LFxMGLkvjWEzprSk</t>
-  </si>
-  <si>
-    <t>gKpPnZcQYkaF6uJi2BCm</t>
-  </si>
-  <si>
-    <t>2bbFHbybDVIEC1pPDaFk</t>
-  </si>
-  <si>
-    <t>X22L93X4UqRPEXH9HF30</t>
-  </si>
-  <si>
-    <t>KGQDLK4cKGs3qnA2dkAc</t>
-  </si>
-  <si>
-    <t>duUnGI605q37Yc9UAvUr</t>
-  </si>
-  <si>
-    <t>mtlmLOthaa3Tq8c7PanR</t>
-  </si>
-  <si>
-    <t>5FKdQxsG9swi1kwtAlax</t>
-  </si>
-  <si>
-    <t>j4W1k5OoFFyiZGhmaWrM</t>
-  </si>
-  <si>
-    <t>ifc4vVxxdu3S24OSlcCT</t>
-  </si>
-  <si>
-    <t>nMyKNC5EtgWPX6ZTFhCI</t>
-  </si>
-  <si>
-    <t>xQB65t2Jk3IeVQhCm9z8</t>
-  </si>
-  <si>
-    <t>o0YTnSvLaMJ9anSnZmGB</t>
-  </si>
-  <si>
-    <t>8b2RdLgx53gBMw1pqnwj</t>
-  </si>
-  <si>
-    <t>wIE7TC0z15ROQRmEP8NY</t>
-  </si>
-  <si>
-    <t>gES0jyVuHvITxTzo5vXh</t>
-  </si>
-  <si>
-    <t>6i41zMrPcoirWDyvPy62</t>
-  </si>
-  <si>
-    <t>w9uwl3peL3HYT8zyOyG3</t>
-  </si>
-  <si>
-    <t>8MRXce2JtSZL5BjpR1tp</t>
-  </si>
-  <si>
-    <t>8mZ2XYCxSsaTrdsxQ9g7</t>
-  </si>
-  <si>
-    <t>4JLKM0vbqcbxUDOhxQeU</t>
-  </si>
-  <si>
-    <t>3q0JrbaklhD59NBDDHGz</t>
-  </si>
-  <si>
-    <t>aMzGoEbNFmTdr2hJMaBJ</t>
-  </si>
-  <si>
-    <t>eriqJZ6VzAHMrthjqwHB</t>
-  </si>
-  <si>
-    <t>0Q3Q9c5EMposRoBkVpvw</t>
-  </si>
-  <si>
-    <t>awBYyhA3ZG0n5LV8nED9</t>
-  </si>
-  <si>
-    <t>P3My4YPwpZcKYd1STFxs</t>
-  </si>
-  <si>
-    <t>tjraHmVRRlh5bY7OmC9u</t>
-  </si>
-  <si>
-    <t>KUvwX6HuaZaSsNaklvcb</t>
-  </si>
-  <si>
-    <t>Ua58muo7MGktkvDQeRoE</t>
-  </si>
-  <si>
-    <t>8EOk84qkpJtAkgzoGoOv</t>
-  </si>
-  <si>
-    <t>UphDPvshyev5N1Th5fWW</t>
+    <t>C00WYISPrApmBpYlMvRZ</t>
+  </si>
+  <si>
+    <t>jXvEwk5NYvCjfIMRZO3T</t>
+  </si>
+  <si>
+    <t>i0ZAiLD4lr77kLbtCOXl</t>
+  </si>
+  <si>
+    <t>Lb99i8WEw3Ig8L4mvSj4</t>
+  </si>
+  <si>
+    <t>PAa99UmkpnmUfw5toqwY</t>
+  </si>
+  <si>
+    <t>WzL5q6KRB1sMI9es0MBr</t>
+  </si>
+  <si>
+    <t>9eiKUqXrfWnWMs41gtZX</t>
+  </si>
+  <si>
+    <t>Ji6mIQ8vwj6Ht6SZHJtE</t>
+  </si>
+  <si>
+    <t>VxK61i7P6rGT3WQlLEtv</t>
+  </si>
+  <si>
+    <t>djqFV46PW8rtZQRCLMDS</t>
+  </si>
+  <si>
+    <t>VhQe9cQVzZLdoyd2fdSK</t>
+  </si>
+  <si>
+    <t>WbPYnchpdBiF6T6sDCQP</t>
+  </si>
+  <si>
+    <t>7m4MWRpzlX6rQCzFrWtY</t>
+  </si>
+  <si>
+    <t>RltMiObo8ULmnlyB68i3</t>
+  </si>
+  <si>
+    <t>J9tD68MkIv3xXToxtVLZ</t>
+  </si>
+  <si>
+    <t>8Pb6SqV3IjyTX5xseUkL</t>
+  </si>
+  <si>
+    <t>Vaz2PGhGgS7VB73icss2</t>
+  </si>
+  <si>
+    <t>mULDm79Hi4DtB3dFuRDc</t>
+  </si>
+  <si>
+    <t>cgNuPS3iG3Ef4GEJgD3D</t>
+  </si>
+  <si>
+    <t>/Kw45gpMP8CXoZRiFyGQo</t>
+  </si>
+  <si>
+    <t>DL4ULiomK4Ndwn5qRuzQ</t>
+  </si>
+  <si>
+    <t>SkZJ1dCg9DATGYSltzzZ</t>
+  </si>
+  <si>
+    <t>tfYZikokPbPzQidwLt1b</t>
+  </si>
+  <si>
+    <t>50lKZe0FeRlv0bNvYW1C</t>
+  </si>
+  <si>
+    <t>wmcVggFs432aKn0fsKZ2</t>
+  </si>
+  <si>
+    <t>VcTplGlDfq62BdCTmH99</t>
+  </si>
+  <si>
+    <t>hCSWl1cQFv6UK2k4dFWV</t>
+  </si>
+  <si>
+    <t>R79ypq2z5STFoqlsKsAD</t>
+  </si>
+  <si>
+    <t>q3Wtq5CTGSdemWSvmShw</t>
+  </si>
+  <si>
+    <t>3uocvVlBY6Uoog97bp2k</t>
+  </si>
+  <si>
+    <t>yKcOVDRP33qLekAiiGQz</t>
+  </si>
+  <si>
+    <t>w32kGqoLZzq6DFe5YPHy</t>
+  </si>
+  <si>
+    <t>QzKYMdMebO3jkjz2YUFZ</t>
+  </si>
+  <si>
+    <t>JfKq84Xmkuq66dsJb7Uy</t>
+  </si>
+  <si>
+    <t>A3huw8jZ9CQ9EZ582CHl</t>
+  </si>
+  <si>
+    <t>52E1qjZWFqts3C8aWB5z</t>
+  </si>
+  <si>
+    <t>Sp1EEsaOzCO4FDyaTrxM</t>
+  </si>
+  <si>
+    <t>HVsCszS8NnqVbRqX6KjA</t>
+  </si>
+  <si>
+    <t>lbs6iRXDzTQUFxyYtXkA</t>
+  </si>
+  <si>
+    <t>2Axb9w0fQAy8uulmjIa3</t>
+  </si>
+  <si>
+    <t>sviTU4fJcWW0gqSALlgn</t>
+  </si>
+  <si>
+    <t>as3VZlKH02LXlVraqqmr</t>
+  </si>
+  <si>
+    <t>8Z4nTC7O5twUtkJTfDzF</t>
+  </si>
+  <si>
+    <t>vyRoCdsoOFhC7QeAVpWH</t>
+  </si>
+  <si>
+    <t>U5EJRszgSrpcMEDz74lC</t>
+  </si>
+  <si>
+    <t>XpPBSE4pCOgqEIfFpKew</t>
+  </si>
+  <si>
+    <t>3NO0W21MnJ9KoUbrht6N</t>
+  </si>
+  <si>
+    <t>GPzgoJO65cyJFlOk6w5m</t>
+  </si>
+  <si>
+    <t>KS4RUJ3pHE65Wn9vkTvD</t>
+  </si>
+  <si>
+    <t>pdahhpwWqMkxrsbyHnxN</t>
+  </si>
+  <si>
+    <t>HDxZR1AJW818qQssCF5k</t>
+  </si>
+  <si>
+    <t>AuPOQvm13KhRRy3NJIqN</t>
+  </si>
+  <si>
+    <t>GJczcgHgbBQ5r9tJSCA9</t>
+  </si>
+  <si>
+    <t>l5Lt1VtavUP5buOSCKJK</t>
+  </si>
+  <si>
+    <t>7WWIsEvoFd7c65aiH6cU</t>
+  </si>
+  <si>
+    <t>Te53vp3IGZaQArIu9STR</t>
+  </si>
+  <si>
+    <t>IpeexauMq2OIGifUYNVu</t>
+  </si>
+  <si>
+    <t>cgfScPwzxujqDtL9Gvb1</t>
+  </si>
+  <si>
+    <t>M0t7ku3TYvfKuYAULIC7</t>
+  </si>
+  <si>
+    <t>V9elgbW5PbgZk9BNnbCK</t>
+  </si>
+  <si>
+    <t>o42O11lXDsGXfKTgi2kE</t>
+  </si>
+  <si>
+    <t>4dp7pq0UWX0TUJh3ldr2</t>
+  </si>
+  <si>
+    <t>Lzyrx0JaWleTm3oMTmJ2</t>
+  </si>
+  <si>
+    <t>6qIBB5qLorpuGplacBQF</t>
+  </si>
+  <si>
+    <t>qoIk4PxKAUTiw2Ky0AbK</t>
+  </si>
+  <si>
+    <t>88h5mVlKUo0TYlnPWaXP</t>
+  </si>
+  <si>
+    <t>f2IBTdUuHj7lczMfaGB9</t>
+  </si>
+  <si>
+    <t>LLZVjTm1HKxHW8n2vEBF</t>
+  </si>
+  <si>
+    <t>fzuowJdRUTTC5EtBx0gD</t>
+  </si>
+  <si>
+    <t>rzlQ18K9OIvsxu9ZiFVR</t>
+  </si>
+  <si>
+    <t>mwvDKTBt4Fx5Rbzol1nG</t>
+  </si>
+  <si>
+    <t>wyMhYXxkeLyyiq0qUpM9</t>
   </si>
 </sst>
 </file>
@@ -607,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,16 +649,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -669,16 +669,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -689,16 +689,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -709,16 +709,16 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -729,10 +729,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -769,16 +769,16 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -789,16 +789,16 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -809,16 +809,16 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -829,16 +829,16 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -849,10 +849,10 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
@@ -889,16 +889,16 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -909,16 +909,16 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -929,16 +929,16 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -949,16 +949,16 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -969,10 +969,10 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E18" t="s">
         <v>6</v>
@@ -1009,7 +1009,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D20" t="s">
         <v>74</v>
@@ -1029,7 +1029,7 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D21" t="s">
         <v>75</v>
@@ -1049,7 +1049,7 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="D22" t="s">
         <v>76</v>
@@ -1112,13 +1112,13 @@
         <v>11</v>
       </c>
       <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s">
         <v>15</v>
       </c>
-      <c r="E25" t="s">
-        <v>16</v>
-      </c>
       <c r="F25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/grade_eight.xlsx
+++ b/grade_eight.xlsx
@@ -74,220 +74,220 @@
     <t>************************</t>
   </si>
   <si>
-    <t>C00WYISPrApmBpYlMvRZ</t>
-  </si>
-  <si>
     <t>jXvEwk5NYvCjfIMRZO3T</t>
   </si>
   <si>
     <t>i0ZAiLD4lr77kLbtCOXl</t>
   </si>
   <si>
-    <t>Lb99i8WEw3Ig8L4mvSj4</t>
-  </si>
-  <si>
     <t>PAa99UmkpnmUfw5toqwY</t>
   </si>
   <si>
-    <t>WzL5q6KRB1sMI9es0MBr</t>
-  </si>
-  <si>
     <t>9eiKUqXrfWnWMs41gtZX</t>
   </si>
   <si>
     <t>Ji6mIQ8vwj6Ht6SZHJtE</t>
   </si>
   <si>
-    <t>VxK61i7P6rGT3WQlLEtv</t>
-  </si>
-  <si>
     <t>djqFV46PW8rtZQRCLMDS</t>
   </si>
   <si>
-    <t>VhQe9cQVzZLdoyd2fdSK</t>
-  </si>
-  <si>
     <t>WbPYnchpdBiF6T6sDCQP</t>
   </si>
   <si>
     <t>7m4MWRpzlX6rQCzFrWtY</t>
   </si>
   <si>
-    <t>RltMiObo8ULmnlyB68i3</t>
-  </si>
-  <si>
-    <t>J9tD68MkIv3xXToxtVLZ</t>
-  </si>
-  <si>
     <t>8Pb6SqV3IjyTX5xseUkL</t>
   </si>
   <si>
     <t>Vaz2PGhGgS7VB73icss2</t>
   </si>
   <si>
-    <t>mULDm79Hi4DtB3dFuRDc</t>
-  </si>
-  <si>
-    <t>cgNuPS3iG3Ef4GEJgD3D</t>
-  </si>
-  <si>
     <t>/Kw45gpMP8CXoZRiFyGQo</t>
   </si>
   <si>
     <t>DL4ULiomK4Ndwn5qRuzQ</t>
   </si>
   <si>
-    <t>SkZJ1dCg9DATGYSltzzZ</t>
-  </si>
-  <si>
     <t>tfYZikokPbPzQidwLt1b</t>
   </si>
   <si>
-    <t>50lKZe0FeRlv0bNvYW1C</t>
-  </si>
-  <si>
     <t>wmcVggFs432aKn0fsKZ2</t>
   </si>
   <si>
     <t>VcTplGlDfq62BdCTmH99</t>
   </si>
   <si>
-    <t>hCSWl1cQFv6UK2k4dFWV</t>
-  </si>
-  <si>
     <t>R79ypq2z5STFoqlsKsAD</t>
   </si>
   <si>
-    <t>q3Wtq5CTGSdemWSvmShw</t>
-  </si>
-  <si>
     <t>3uocvVlBY6Uoog97bp2k</t>
   </si>
   <si>
     <t>yKcOVDRP33qLekAiiGQz</t>
   </si>
   <si>
-    <t>w32kGqoLZzq6DFe5YPHy</t>
-  </si>
-  <si>
-    <t>QzKYMdMebO3jkjz2YUFZ</t>
-  </si>
-  <si>
     <t>JfKq84Xmkuq66dsJb7Uy</t>
   </si>
   <si>
     <t>A3huw8jZ9CQ9EZ582CHl</t>
   </si>
   <si>
-    <t>52E1qjZWFqts3C8aWB5z</t>
-  </si>
-  <si>
-    <t>Sp1EEsaOzCO4FDyaTrxM</t>
-  </si>
-  <si>
     <t>HVsCszS8NnqVbRqX6KjA</t>
   </si>
   <si>
     <t>lbs6iRXDzTQUFxyYtXkA</t>
   </si>
   <si>
-    <t>2Axb9w0fQAy8uulmjIa3</t>
-  </si>
-  <si>
     <t>sviTU4fJcWW0gqSALlgn</t>
   </si>
   <si>
-    <t>as3VZlKH02LXlVraqqmr</t>
-  </si>
-  <si>
     <t>8Z4nTC7O5twUtkJTfDzF</t>
   </si>
   <si>
     <t>vyRoCdsoOFhC7QeAVpWH</t>
   </si>
   <si>
-    <t>U5EJRszgSrpcMEDz74lC</t>
-  </si>
-  <si>
     <t>XpPBSE4pCOgqEIfFpKew</t>
   </si>
   <si>
-    <t>3NO0W21MnJ9KoUbrht6N</t>
-  </si>
-  <si>
     <t>GPzgoJO65cyJFlOk6w5m</t>
   </si>
   <si>
     <t>KS4RUJ3pHE65Wn9vkTvD</t>
   </si>
   <si>
-    <t>pdahhpwWqMkxrsbyHnxN</t>
-  </si>
-  <si>
-    <t>HDxZR1AJW818qQssCF5k</t>
-  </si>
-  <si>
     <t>AuPOQvm13KhRRy3NJIqN</t>
   </si>
   <si>
     <t>GJczcgHgbBQ5r9tJSCA9</t>
   </si>
   <si>
-    <t>l5Lt1VtavUP5buOSCKJK</t>
-  </si>
-  <si>
-    <t>7WWIsEvoFd7c65aiH6cU</t>
-  </si>
-  <si>
     <t>Te53vp3IGZaQArIu9STR</t>
   </si>
   <si>
     <t>IpeexauMq2OIGifUYNVu</t>
   </si>
   <si>
-    <t>cgfScPwzxujqDtL9Gvb1</t>
-  </si>
-  <si>
-    <t>M0t7ku3TYvfKuYAULIC7</t>
-  </si>
-  <si>
     <t>V9elgbW5PbgZk9BNnbCK</t>
   </si>
   <si>
     <t>o42O11lXDsGXfKTgi2kE</t>
   </si>
   <si>
-    <t>4dp7pq0UWX0TUJh3ldr2</t>
-  </si>
-  <si>
-    <t>Lzyrx0JaWleTm3oMTmJ2</t>
-  </si>
-  <si>
     <t>6qIBB5qLorpuGplacBQF</t>
   </si>
   <si>
     <t>qoIk4PxKAUTiw2Ky0AbK</t>
   </si>
   <si>
-    <t>88h5mVlKUo0TYlnPWaXP</t>
-  </si>
-  <si>
     <t>f2IBTdUuHj7lczMfaGB9</t>
   </si>
   <si>
-    <t>LLZVjTm1HKxHW8n2vEBF</t>
-  </si>
-  <si>
     <t>fzuowJdRUTTC5EtBx0gD</t>
   </si>
   <si>
     <t>rzlQ18K9OIvsxu9ZiFVR</t>
   </si>
   <si>
-    <t>mwvDKTBt4Fx5Rbzol1nG</t>
-  </si>
-  <si>
     <t>wyMhYXxkeLyyiq0qUpM9</t>
+  </si>
+  <si>
+    <t>FSBarAK6DvDh9g4qvaxv</t>
+  </si>
+  <si>
+    <t>drmFfKInneT6yPpElwyi</t>
+  </si>
+  <si>
+    <t>ETZI9rLfsyc6Z1goYFYe</t>
+  </si>
+  <si>
+    <t>yewUNK29HeBPRR1WWTG8</t>
+  </si>
+  <si>
+    <t>YjZzvIKaLrQEqMSAQTXa</t>
+  </si>
+  <si>
+    <t>P7sNr7j6GOU1zasc5JE4</t>
+  </si>
+  <si>
+    <t>oMU92DQUcdbQ3LxxOKlj</t>
+  </si>
+  <si>
+    <t>AeX8c1Ar0ly1vBaMDXja</t>
+  </si>
+  <si>
+    <t>vVdViHEjcvwidczMIv8s</t>
+  </si>
+  <si>
+    <t>GFkETYHUSpGBEL4r7xmw</t>
+  </si>
+  <si>
+    <t>26lvgplRN5MqnNCw49lP</t>
+  </si>
+  <si>
+    <t>0Z9LY8oZS9z1wS2vabhN</t>
+  </si>
+  <si>
+    <t>Bvm6NNe7TQTRM1tfmPQ0</t>
+  </si>
+  <si>
+    <t>5SVJ005HYbSnqjt7ffwb</t>
+  </si>
+  <si>
+    <t>nTvOVBLI6fz4lv95uh0y</t>
+  </si>
+  <si>
+    <t>fPtE2G6IqBEQbNlXBMn4</t>
+  </si>
+  <si>
+    <t>7EtlCyYSj138nJcU41wo</t>
+  </si>
+  <si>
+    <t>iT7LGm2F06jcT3zHNzit</t>
+  </si>
+  <si>
+    <t>IH8LR8gnCyYoVq5dd2fg</t>
+  </si>
+  <si>
+    <t>4q5Epfo0jW73PsloHgR5</t>
+  </si>
+  <si>
+    <t>WMx3zZ6AVRNrHX2UgAAu</t>
+  </si>
+  <si>
+    <t>rY6WjfffjgkoT7w2ilwZ</t>
+  </si>
+  <si>
+    <t>Boa7tH8KtCSbecskjToJ</t>
+  </si>
+  <si>
+    <t>cDpl3AD7szgjb8KCg1QS</t>
+  </si>
+  <si>
+    <t>mXv1pOSkB3NCTVVlHraK</t>
+  </si>
+  <si>
+    <t>nxls50wwacQV9Aq54wfH</t>
+  </si>
+  <si>
+    <t>CWnDqASaBBSiCu5Oq74Q</t>
+  </si>
+  <si>
+    <t>gj7EbiobLR83wvEvuumT</t>
+  </si>
+  <si>
+    <t>VKIOiSHUqyVld2Yq1V14</t>
+  </si>
+  <si>
+    <t>1XHw3PnaJFnLdwG7Yt8M</t>
+  </si>
+  <si>
+    <t>VRAX8v7tJ0ihLxHiH18C</t>
+  </si>
+  <si>
+    <t>pItXz2bFTKYR6jEzfYMg</t>
   </si>
 </sst>
 </file>
@@ -607,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,16 +649,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -669,16 +669,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -689,16 +689,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -709,16 +709,16 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -729,10 +729,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -769,16 +769,16 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -789,16 +789,16 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -809,16 +809,16 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -829,16 +829,16 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -849,10 +849,10 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
@@ -889,16 +889,16 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -909,16 +909,16 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="E15" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -929,16 +929,16 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="E16" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -949,16 +949,16 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -969,10 +969,10 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="E18" t="s">
         <v>6</v>
@@ -1009,16 +1009,16 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="D20" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="E20" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F20" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1029,16 +1029,16 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="E21" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="F21" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1049,16 +1049,16 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="D22" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="E22" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="F22" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1069,16 +1069,16 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D23" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E23" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="F23" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1095,10 +1095,10 @@
         <v>6</v>
       </c>
       <c r="E24" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="F24" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">

--- a/grade_eight.xlsx
+++ b/grade_eight.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="72">
   <si>
     <t>id</t>
   </si>
@@ -74,120 +74,72 @@
     <t>************************</t>
   </si>
   <si>
-    <t>jXvEwk5NYvCjfIMRZO3T</t>
-  </si>
-  <si>
     <t>i0ZAiLD4lr77kLbtCOXl</t>
   </si>
   <si>
     <t>PAa99UmkpnmUfw5toqwY</t>
   </si>
   <si>
-    <t>9eiKUqXrfWnWMs41gtZX</t>
-  </si>
-  <si>
     <t>Ji6mIQ8vwj6Ht6SZHJtE</t>
   </si>
   <si>
     <t>djqFV46PW8rtZQRCLMDS</t>
   </si>
   <si>
-    <t>WbPYnchpdBiF6T6sDCQP</t>
-  </si>
-  <si>
     <t>7m4MWRpzlX6rQCzFrWtY</t>
   </si>
   <si>
-    <t>8Pb6SqV3IjyTX5xseUkL</t>
-  </si>
-  <si>
     <t>Vaz2PGhGgS7VB73icss2</t>
   </si>
   <si>
-    <t>/Kw45gpMP8CXoZRiFyGQo</t>
-  </si>
-  <si>
     <t>DL4ULiomK4Ndwn5qRuzQ</t>
   </si>
   <si>
     <t>tfYZikokPbPzQidwLt1b</t>
   </si>
   <si>
-    <t>wmcVggFs432aKn0fsKZ2</t>
-  </si>
-  <si>
     <t>VcTplGlDfq62BdCTmH99</t>
   </si>
   <si>
     <t>R79ypq2z5STFoqlsKsAD</t>
   </si>
   <si>
-    <t>3uocvVlBY6Uoog97bp2k</t>
-  </si>
-  <si>
     <t>yKcOVDRP33qLekAiiGQz</t>
   </si>
   <si>
-    <t>JfKq84Xmkuq66dsJb7Uy</t>
-  </si>
-  <si>
     <t>A3huw8jZ9CQ9EZ582CHl</t>
   </si>
   <si>
-    <t>HVsCszS8NnqVbRqX6KjA</t>
-  </si>
-  <si>
     <t>lbs6iRXDzTQUFxyYtXkA</t>
   </si>
   <si>
     <t>sviTU4fJcWW0gqSALlgn</t>
   </si>
   <si>
-    <t>8Z4nTC7O5twUtkJTfDzF</t>
-  </si>
-  <si>
     <t>vyRoCdsoOFhC7QeAVpWH</t>
   </si>
   <si>
     <t>XpPBSE4pCOgqEIfFpKew</t>
   </si>
   <si>
-    <t>GPzgoJO65cyJFlOk6w5m</t>
-  </si>
-  <si>
     <t>KS4RUJ3pHE65Wn9vkTvD</t>
   </si>
   <si>
-    <t>AuPOQvm13KhRRy3NJIqN</t>
-  </si>
-  <si>
     <t>GJczcgHgbBQ5r9tJSCA9</t>
   </si>
   <si>
-    <t>Te53vp3IGZaQArIu9STR</t>
-  </si>
-  <si>
     <t>IpeexauMq2OIGifUYNVu</t>
   </si>
   <si>
-    <t>V9elgbW5PbgZk9BNnbCK</t>
-  </si>
-  <si>
     <t>o42O11lXDsGXfKTgi2kE</t>
   </si>
   <si>
-    <t>6qIBB5qLorpuGplacBQF</t>
-  </si>
-  <si>
     <t>qoIk4PxKAUTiw2Ky0AbK</t>
   </si>
   <si>
     <t>f2IBTdUuHj7lczMfaGB9</t>
   </si>
   <si>
-    <t>fzuowJdRUTTC5EtBx0gD</t>
-  </si>
-  <si>
     <t>rzlQ18K9OIvsxu9ZiFVR</t>
   </si>
   <si>
@@ -242,52 +194,52 @@
     <t>fPtE2G6IqBEQbNlXBMn4</t>
   </si>
   <si>
-    <t>7EtlCyYSj138nJcU41wo</t>
-  </si>
-  <si>
-    <t>iT7LGm2F06jcT3zHNzit</t>
-  </si>
-  <si>
-    <t>IH8LR8gnCyYoVq5dd2fg</t>
-  </si>
-  <si>
-    <t>4q5Epfo0jW73PsloHgR5</t>
-  </si>
-  <si>
-    <t>WMx3zZ6AVRNrHX2UgAAu</t>
-  </si>
-  <si>
-    <t>rY6WjfffjgkoT7w2ilwZ</t>
-  </si>
-  <si>
-    <t>Boa7tH8KtCSbecskjToJ</t>
-  </si>
-  <si>
-    <t>cDpl3AD7szgjb8KCg1QS</t>
-  </si>
-  <si>
-    <t>mXv1pOSkB3NCTVVlHraK</t>
-  </si>
-  <si>
-    <t>nxls50wwacQV9Aq54wfH</t>
-  </si>
-  <si>
-    <t>CWnDqASaBBSiCu5Oq74Q</t>
-  </si>
-  <si>
-    <t>gj7EbiobLR83wvEvuumT</t>
-  </si>
-  <si>
-    <t>VKIOiSHUqyVld2Yq1V14</t>
-  </si>
-  <si>
-    <t>1XHw3PnaJFnLdwG7Yt8M</t>
-  </si>
-  <si>
-    <t>VRAX8v7tJ0ihLxHiH18C</t>
-  </si>
-  <si>
-    <t>pItXz2bFTKYR6jEzfYMg</t>
+    <t>QK6fPdR28IpQNplWbWO0</t>
+  </si>
+  <si>
+    <t>rQJXjOVsRqJmrm0HiukU</t>
+  </si>
+  <si>
+    <t>aA9hNATkJ3UFSctkB9Xm</t>
+  </si>
+  <si>
+    <t>msUPKaqMdJ6AL7EigWFP</t>
+  </si>
+  <si>
+    <t>08ileewsIiXk0KNHXDh2</t>
+  </si>
+  <si>
+    <t>bAmCTNlQ6tFMNMq4g3tj</t>
+  </si>
+  <si>
+    <t>hxhbUX5nzT9WtTIwwCli</t>
+  </si>
+  <si>
+    <t>n1dChofIXsTOrroWQaUg</t>
+  </si>
+  <si>
+    <t>5r6aQnN0gZX5TaADruMC</t>
+  </si>
+  <si>
+    <t>Pxvd6PMdrZ1U1rG1ZdXh</t>
+  </si>
+  <si>
+    <t>dYLu8nAIawqyqTE3Dics</t>
+  </si>
+  <si>
+    <t>P0yF0X6aj47L7QACeFpM</t>
+  </si>
+  <si>
+    <t>tw1J3DtLWHgozlbrGg2A</t>
+  </si>
+  <si>
+    <t>eFi4OI7Ok729aeg6LHpl</t>
+  </si>
+  <si>
+    <t>AYcMavxl644tFmvk0m1x</t>
+  </si>
+  <si>
+    <t>ky2AUUlmzwuwLl37IAdg</t>
   </si>
 </sst>
 </file>
@@ -607,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,16 +601,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -669,16 +621,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -689,16 +641,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -709,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -729,10 +681,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -769,16 +721,16 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="F8" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -789,16 +741,16 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -809,16 +761,16 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
         <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -829,16 +781,16 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -849,10 +801,10 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
@@ -889,16 +841,16 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="F14" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -909,16 +861,16 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="F15" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -929,16 +881,16 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F16" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -949,16 +901,16 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E17" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F17" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -969,10 +921,10 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E18" t="s">
         <v>6</v>
@@ -1009,16 +961,16 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="D20" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="E20" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="F20" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1029,16 +981,16 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="D21" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="E21" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F21" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1049,16 +1001,16 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E22" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="F22" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1069,16 +1021,16 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="D23" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E23" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F23" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1095,10 +1047,10 @@
         <v>6</v>
       </c>
       <c r="E24" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="F24" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">

--- a/grade_eight.xlsx
+++ b/grade_eight.xlsx
@@ -77,15 +77,9 @@
     <t>i0ZAiLD4lr77kLbtCOXl</t>
   </si>
   <si>
-    <t>PAa99UmkpnmUfw5toqwY</t>
-  </si>
-  <si>
     <t>Ji6mIQ8vwj6Ht6SZHJtE</t>
   </si>
   <si>
-    <t>djqFV46PW8rtZQRCLMDS</t>
-  </si>
-  <si>
     <t>7m4MWRpzlX6rQCzFrWtY</t>
   </si>
   <si>
@@ -95,15 +89,9 @@
     <t>DL4ULiomK4Ndwn5qRuzQ</t>
   </si>
   <si>
-    <t>tfYZikokPbPzQidwLt1b</t>
-  </si>
-  <si>
     <t>VcTplGlDfq62BdCTmH99</t>
   </si>
   <si>
-    <t>R79ypq2z5STFoqlsKsAD</t>
-  </si>
-  <si>
     <t>yKcOVDRP33qLekAiiGQz</t>
   </si>
   <si>
@@ -113,15 +101,9 @@
     <t>lbs6iRXDzTQUFxyYtXkA</t>
   </si>
   <si>
-    <t>sviTU4fJcWW0gqSALlgn</t>
-  </si>
-  <si>
     <t>vyRoCdsoOFhC7QeAVpWH</t>
   </si>
   <si>
-    <t>XpPBSE4pCOgqEIfFpKew</t>
-  </si>
-  <si>
     <t>KS4RUJ3pHE65Wn9vkTvD</t>
   </si>
   <si>
@@ -137,15 +119,9 @@
     <t>qoIk4PxKAUTiw2Ky0AbK</t>
   </si>
   <si>
-    <t>f2IBTdUuHj7lczMfaGB9</t>
-  </si>
-  <si>
     <t>rzlQ18K9OIvsxu9ZiFVR</t>
   </si>
   <si>
-    <t>wyMhYXxkeLyyiq0qUpM9</t>
-  </si>
-  <si>
     <t>FSBarAK6DvDh9g4qvaxv</t>
   </si>
   <si>
@@ -240,6 +216,30 @@
   </si>
   <si>
     <t>ky2AUUlmzwuwLl37IAdg</t>
+  </si>
+  <si>
+    <t>4VDyVobDnbtrJVlHnSdP</t>
+  </si>
+  <si>
+    <t>R8RgpUn4Uv52BwTDBxTm</t>
+  </si>
+  <si>
+    <t>B2YjkjRDy4C3LfWOTAVE</t>
+  </si>
+  <si>
+    <t>GjRFa1PPsr1KtgAY57cz</t>
+  </si>
+  <si>
+    <t>tIeFMO0HT1YdkchZn5lA</t>
+  </si>
+  <si>
+    <t>xpABrtBO6e5WF7JalJ6I</t>
+  </si>
+  <si>
+    <t>TNl9SZJTalf6qjJp4S8Q</t>
+  </si>
+  <si>
+    <t>6ClGRU9A57BvdmRQPhA7</t>
   </si>
 </sst>
 </file>
@@ -559,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,16 +601,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -621,16 +621,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -644,13 +644,13 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -681,10 +681,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -721,16 +721,16 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -741,16 +741,16 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -761,16 +761,16 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
         <v>22</v>
       </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" t="s">
-        <v>26</v>
-      </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -781,16 +781,16 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -801,10 +801,10 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
@@ -841,16 +841,16 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F14" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -861,16 +861,16 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E15" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F15" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -881,16 +881,16 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -901,16 +901,16 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F17" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -921,10 +921,10 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="E18" t="s">
         <v>6</v>
@@ -961,16 +961,16 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D20" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F20" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -981,16 +981,16 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E21" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F21" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1001,16 +1001,16 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1021,16 +1021,16 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E23" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F23" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1047,10 +1047,10 @@
         <v>6</v>
       </c>
       <c r="E24" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
